--- a/Expense.xlsx
+++ b/Expense.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\hbksilver-code\RPA\P0\P0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DFA87B-F63C-4435-92D9-7CA4A6BC3094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="683" yWindow="3128" windowWidth="14399" windowHeight="8272" xr2:uid="{8C85B8CF-4611-48C0-9F54-5ACB59169B9F}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <x:bookViews>
+    <x:workbookView xWindow="683" yWindow="3128" windowWidth="14399" windowHeight="8272" firstSheet="0" activeTab="0" xr2:uid="{8C85B8CF-4611-48C0-9F54-5ACB59169B9F}"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="191029"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+    </x:ext>
+    <x:ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
@@ -28,112 +29,124 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Client</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Doe</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>Locke</t>
-  </si>
-  <si>
-    <t>Lott</t>
-  </si>
-  <si>
-    <t>iphone</t>
-  </si>
-  <si>
-    <t>flowers</t>
-  </si>
-  <si>
-    <t>Jeans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mouse </t>
-  </si>
-  <si>
-    <t>burgeer</t>
-  </si>
-  <si>
-    <t>car</t>
-  </si>
-  <si>
-    <t>ItemName</t>
-  </si>
-  <si>
-    <t>CustomerID</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <x:si>
+    <x:t>Total</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CustomerID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Client</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ItemName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Burger</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Car</x:t>
+  </x:si>
+  <x:si>
+    <x:t>iphone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flowers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jeans</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-  </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+  <x:numFmts count="2">
+    <x:numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <x:numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </x:numFmts>
+  <x:fonts count="2" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="4">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="6" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="8" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="6">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <x:xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -432,93 +445,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C822960F-97BE-4070-9762-3A590B67FA6E}">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="13.9296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{C822960F-97BE-4070-9762-3A590B67FA6E}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:E6"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="E1" sqref="E1 E1:E1"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <x:cols>
+    <x:col min="1" max="1" width="9.140625" style="3" customWidth="1"/>
+    <x:col min="2" max="2" width="13.929688" style="3" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <x:c r="A1" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="3" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <x:c r="A2" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B2" s="3" t="s"/>
+      <x:c r="C2" s="3" t="s"/>
+      <x:c r="D2" s="3" t="s"/>
+      <x:c r="E2" s="4" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <x:c r="A3" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B3" s="3" t="s"/>
+      <x:c r="C3" s="3" t="s"/>
+      <x:c r="D3" s="3" t="s"/>
+      <x:c r="E3" s="4" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <x:c r="A4" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B4" s="3" t="s"/>
+      <x:c r="C4" s="3" t="s"/>
+      <x:c r="D4" s="3" t="s"/>
+      <x:c r="E4" s="5" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <x:c r="A5" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B5" s="3" t="s"/>
+      <x:c r="C5" s="3" t="s"/>
+      <x:c r="D5" s="3" t="s"/>
+      <x:c r="E5" s="5" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <x:c r="A6" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B6" s="3" t="s"/>
+      <x:c r="C6" s="3" t="s"/>
+      <x:c r="D6" s="3" t="s"/>
+      <x:c r="E6" s="5" t="s"/>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/Expense.xlsx
+++ b/Expense.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\hbksilver-code\RPA\P0\P0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DFA87B-F63C-4435-92D9-7CA4A6BC3094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <x:bookViews>
-    <x:workbookView xWindow="683" yWindow="3128" windowWidth="14399" windowHeight="8272" firstSheet="0" activeTab="0" xr2:uid="{8C85B8CF-4611-48C0-9F54-5ACB59169B9F}"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </x:sheets>
-  <x:definedNames/>
-  <x:calcPr calcId="191029"/>
-  <x:extLst>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1D46A2-DFE8-485B-9C7A-BD700C0B1E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="683" yWindow="3128" windowWidth="14399" windowHeight="8272" xr2:uid="{8C85B8CF-4611-48C0-9F54-5ACB59169B9F}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </x:ext>
-    <x:ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
@@ -29,124 +28,125 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
-    </x:ext>
-  </x:extLst>
-</x:workbook>
+    </ext>
+  </extLst>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <x:si>
-    <x:t>Total</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CustomerID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Client</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ItemName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Burger</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Car</x:t>
-  </x:si>
-  <x:si>
-    <x:t>iphone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flowers</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jeans</x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>ItemName</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Burger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John </t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mary </t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>iphone</t>
+  </si>
+  <si>
+    <t>Tasha</t>
+  </si>
+  <si>
+    <t>Locke</t>
+  </si>
+  <si>
+    <t>Flowers</t>
+  </si>
+  <si>
+    <t>Haskel</t>
+  </si>
+  <si>
+    <t>Lott</t>
+  </si>
+  <si>
+    <t>Jeans</t>
+  </si>
+  <si>
+    <t>Mikey</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
-  <x:numFmts count="2">
-    <x:numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <x:numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-  </x:numFmts>
-  <x:fonts count="2" x14ac:knownFonts="1">
-    <x:font>
-      <x:sz val="11"/>
-      <x:color theme="1"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="2">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-  </x:fills>
-  <x:borders count="1">
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
-      <x:diagonal/>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="4">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="6" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="8" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellStyleXfs>
-  <x:cellXfs count="6">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <x:xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <x:xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </x:cellStyles>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </x:ext>
-  </x:extLst>
-</x:styleSheet>
+    </ext>
+  </extLst>
+</styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -445,86 +445,97 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{C822960F-97BE-4070-9762-3A590B67FA6E}" mc:Ignorable="x14ac xr xr2 xr3">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:E6"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="E1" sqref="E1 E1:E1"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <x:cols>
-    <x:col min="1" max="1" width="9.140625" style="3" customWidth="1"/>
-    <x:col min="2" max="2" width="13.929688" style="3" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <x:c r="A1" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="3" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C1" s="3" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D1" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <x:c r="A2" s="3" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B2" s="3" t="s"/>
-      <x:c r="C2" s="3" t="s"/>
-      <x:c r="D2" s="3" t="s"/>
-      <x:c r="E2" s="4" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <x:c r="A3" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B3" s="3" t="s"/>
-      <x:c r="C3" s="3" t="s"/>
-      <x:c r="D3" s="3" t="s"/>
-      <x:c r="E3" s="4" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <x:c r="A4" s="3" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B4" s="3" t="s"/>
-      <x:c r="C4" s="3" t="s"/>
-      <x:c r="D4" s="3" t="s"/>
-      <x:c r="E4" s="5" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <x:c r="A5" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B5" s="3" t="s"/>
-      <x:c r="C5" s="3" t="s"/>
-      <x:c r="D5" s="3" t="s"/>
-      <x:c r="E5" s="5" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <x:c r="A6" s="3" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B6" s="3" t="s"/>
-      <x:c r="C6" s="3" t="s"/>
-      <x:c r="D6" s="3" t="s"/>
-      <x:c r="E6" s="5" t="s"/>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C822960F-97BE-4070-9762-3A590B67FA6E}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.1328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.9296875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Expense.xlsx
+++ b/Expense.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\hbksilver-code\RPA\P0\P0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1D46A2-DFE8-485B-9C7A-BD700C0B1E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="683" yWindow="3128" windowWidth="14399" windowHeight="8272" xr2:uid="{8C85B8CF-4611-48C0-9F54-5ACB59169B9F}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492E57BD-C03F-497A-BBD1-F292BCD9883F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <x:bookViews>
+    <x:workbookView xWindow="4425" yWindow="5310" windowWidth="14400" windowHeight="8273" firstSheet="0" activeTab="0" xr2:uid="{8C85B8CF-4611-48C0-9F54-5ACB59169B9F}"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="191029"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+    </x:ext>
+    <x:ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
@@ -28,125 +29,162 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>ItemName</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Burger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John </t>
-  </si>
-  <si>
-    <t>Doe</t>
-  </si>
-  <si>
-    <t>Car</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mary </t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>iphone</t>
-  </si>
-  <si>
-    <t>Tasha</t>
-  </si>
-  <si>
-    <t>Locke</t>
-  </si>
-  <si>
-    <t>Flowers</t>
-  </si>
-  <si>
-    <t>Haskel</t>
-  </si>
-  <si>
-    <t>Lott</t>
-  </si>
-  <si>
-    <t>Jeans</t>
-  </si>
-  <si>
-    <t>Mikey</t>
-  </si>
-  <si>
-    <t>Mouse</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <x:si>
+    <x:t>ItemName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Price</x:t>
+  </x:si>
+  <x:si>
+    <x:t>First Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Last Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Burger</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> FREE 2-hour delivery on orders over $35 with Prime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Car</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">$399.99$399.99  </x:t>
+  </x:si>
+  <x:si>
+    <x:t>iphone</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+(Renewed) Apple iPhone XS Max, US Version, 64GB, Gold - Unlocked  
+4.5 out of 5 stars
+ 10,971  
+$449.00$449.00  
+Get it as soon as Thu, Oct 7
+FREE Shipping
+More Buying Choices
+$430.00(8 new offers) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flowers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Get it as soon as Tomorrow, Oct 6
+$15.01 shipping</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jeans</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">$35.70$35.70 $59.50$59.50  </x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-  </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+  <x:numFmts count="2">
+    <x:numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <x:numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </x:numFmts>
+  <x:fonts count="2" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="7">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="6" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="8" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="8">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -445,97 +483,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C822960F-97BE-4070-9762-3A590B67FA6E}">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="9.1328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.9296875" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{C822960F-97BE-4070-9762-3A590B67FA6E}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:E6"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="C7" sqref="C7 C7:C7"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <x:cols>
+    <x:col min="1" max="2" width="9.132812" style="4" customWidth="1"/>
+    <x:col min="3" max="3" width="13.929688" style="4" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <x:c r="A1" s="4" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="4" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="4" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="4" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <x:c r="A2" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B2" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C2" s="4" t="s"/>
+      <x:c r="D2" s="4" t="s"/>
+      <x:c r="E2" s="5" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <x:c r="A3" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B3" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C3" s="4" t="s"/>
+      <x:c r="D3" s="4" t="s"/>
+      <x:c r="E3" s="5" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <x:c r="A4" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B4" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C4" s="4" t="s"/>
+      <x:c r="D4" s="4" t="s"/>
+      <x:c r="E4" s="7" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <x:c r="A5" s="4" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B5" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C5" s="4" t="s"/>
+      <x:c r="D5" s="4" t="s"/>
+      <x:c r="E5" s="7" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <x:c r="A6" s="4" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B6" s="6" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C6" s="4" t="s"/>
+      <x:c r="D6" s="4" t="s"/>
+      <x:c r="E6" s="7" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:5">
+      <x:c r="C7" s="4" t="s"/>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/Expense.xlsx
+++ b/Expense.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\hbksilver-code\RPA\P0\P0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492E57BD-C03F-497A-BBD1-F292BCD9883F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1DA9CE-DE4E-428F-8FD8-A4FC9C56CC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="4425" yWindow="5310" windowWidth="14400" windowHeight="8273" firstSheet="0" activeTab="0" xr2:uid="{8C85B8CF-4611-48C0-9F54-5ACB59169B9F}"/>
+    <x:workbookView xWindow="3893" yWindow="997" windowWidth="14400" windowHeight="8273" firstSheet="0" activeTab="0" xr2:uid="{8C85B8CF-4611-48C0-9F54-5ACB59169B9F}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <x:si>
     <x:t>ItemName</x:t>
   </x:si>
@@ -52,40 +52,25 @@
     <x:t>Burger</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve"> FREE 2-hour delivery on orders over $35 with Prime</x:t>
+    <x:t>$24.99</x:t>
   </x:si>
   <x:si>
     <x:t>Car</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">$399.99$399.99  </x:t>
-  </x:si>
-  <x:si>
-    <x:t>iphone</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-(Renewed) Apple iPhone XS Max, US Version, 64GB, Gold - Unlocked  
-4.5 out of 5 stars
- 10,971  
-$449.00$449.00  
-Get it as soon as Thu, Oct 7
-FREE Shipping
-More Buying Choices
-$430.00(8 new offers) </x:t>
+    <x:t>$699.00</x:t>
   </x:si>
   <x:si>
     <x:t>Flowers</x:t>
   </x:si>
   <x:si>
-    <x:t>Get it as soon as Tomorrow, Oct 6
-$15.01 shipping</x:t>
+    <x:t>$43.14</x:t>
   </x:si>
   <x:si>
     <x:t>Jeans</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">$35.70$35.70 $59.50$59.50  </x:t>
+    <x:t>$30.90</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -129,42 +114,39 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="7">
+  <x:cellStyleXfs count="5">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="6" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="8" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="8">
+  <x:cellXfs count="9">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <x:alignment wrapText="1"/>
+    </x:xf>
     <x:xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -490,87 +472,85 @@
   <x:dimension ref="A1:E6"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="C7" sqref="C7 C7:C7"/>
+      <x:selection activeCell="D7" sqref="D7 D7:D7"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <x:cols>
-    <x:col min="1" max="2" width="9.132812" style="4" customWidth="1"/>
-    <x:col min="3" max="3" width="13.929688" style="4" customWidth="1"/>
+    <x:col min="1" max="2" width="9.132812" style="5" customWidth="1"/>
+    <x:col min="3" max="3" width="13.929688" style="5" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <x:c r="A1" s="4" t="s">
+      <x:c r="A1" s="5" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="4" t="s">
+      <x:c r="B1" s="5" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="4" t="s">
+      <x:c r="C1" s="5" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="4" t="s">
+      <x:c r="D1" s="5" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <x:c r="A2" s="4" t="s">
+      <x:c r="A2" s="5" t="s">
         <x:v>4</x:v>
       </x:c>
       <x:c r="B2" s="6" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C2" s="4" t="s"/>
-      <x:c r="D2" s="4" t="s"/>
-      <x:c r="E2" s="5" t="s"/>
+      <x:c r="C2" s="5" t="s"/>
+      <x:c r="D2" s="5" t="s"/>
+      <x:c r="E2" s="7" t="s"/>
     </x:row>
     <x:row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <x:c r="A3" s="4" t="s">
+      <x:c r="A3" s="5" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B3" s="4" t="s">
+      <x:c r="B3" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C3" s="4" t="s"/>
-      <x:c r="D3" s="4" t="s"/>
-      <x:c r="E3" s="5" t="s"/>
+      <x:c r="C3" s="5" t="s"/>
+      <x:c r="D3" s="5" t="s"/>
+      <x:c r="E3" s="7" t="s"/>
     </x:row>
     <x:row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <x:c r="A4" s="4" t="s">
+      <x:c r="A4" s="5" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B4" s="6" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C4" s="4" t="s"/>
-      <x:c r="D4" s="4" t="s"/>
-      <x:c r="E4" s="7" t="s"/>
+      <x:c r="C4" s="5" t="s"/>
+      <x:c r="D4" s="5" t="s"/>
+      <x:c r="E4" s="8" t="s"/>
     </x:row>
     <x:row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <x:c r="A5" s="4" t="s">
-        <x:v>10</x:v>
+      <x:c r="A5" s="5" t="s">
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B5" s="6" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C5" s="4" t="s"/>
-      <x:c r="D5" s="4" t="s"/>
-      <x:c r="E5" s="7" t="s"/>
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C5" s="5" t="s"/>
+      <x:c r="D5" s="5" t="s"/>
+      <x:c r="E5" s="8" t="s"/>
     </x:row>
     <x:row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <x:c r="A6" s="4" t="s">
-        <x:v>12</x:v>
+      <x:c r="A6" s="5" t="s">
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B6" s="6" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C6" s="4" t="s"/>
-      <x:c r="D6" s="4" t="s"/>
-      <x:c r="E6" s="7" t="s"/>
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C6" s="5" t="s"/>
+      <x:c r="D6" s="5" t="s"/>
+      <x:c r="E6" s="8" t="s"/>
     </x:row>
-    <x:row r="7" spans="1:5">
-      <x:c r="C7" s="4" t="s"/>
-    </x:row>
+    <x:row r="7" spans="1:5"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Expense.xlsx
+++ b/Expense.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\hbksilver-code\RPA\P0\P0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1DA9CE-DE4E-428F-8FD8-A4FC9C56CC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C35D640-D4E5-420B-AF45-86F4DF6F337F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="3893" yWindow="997" windowWidth="14400" windowHeight="8273" firstSheet="0" activeTab="0" xr2:uid="{8C85B8CF-4611-48C0-9F54-5ACB59169B9F}"/>
+    <x:workbookView xWindow="0" yWindow="3128" windowWidth="14400" windowHeight="8272" firstSheet="0" activeTab="0" xr2:uid="{8C85B8CF-4611-48C0-9F54-5ACB59169B9F}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <x:sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="191029"/>
@@ -35,18 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <x:si>
     <x:t>ItemName</x:t>
   </x:si>
   <x:si>
     <x:t>Price</x:t>
-  </x:si>
-  <x:si>
-    <x:t>First Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Last Name</x:t>
   </x:si>
   <x:si>
     <x:t>Burger</x:t>
@@ -114,7 +109,7 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="5">
+  <x:cellStyleXfs count="6">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
@@ -126,16 +121,19 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="8" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="9">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <x:alignment wrapText="1"/>
     </x:xf>
+    <x:xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -472,7 +470,7 @@
   <x:dimension ref="A1:E6"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="D7" sqref="D7 D7:D7"/>
+      <x:selection activeCell="C1" sqref="C1 C1:C1"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -488,69 +486,59 @@
       <x:c r="B1" s="5" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="5" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D1" s="5" t="s">
-        <x:v>3</x:v>
-      </x:c>
+      <x:c r="C1" s="5" t="s"/>
+      <x:c r="D1" s="5" t="s"/>
     </x:row>
     <x:row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <x:c r="A2" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="6" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C2" s="5" t="s"/>
+        <x:v>3</x:v>
+      </x:c>
       <x:c r="D2" s="5" t="s"/>
       <x:c r="E2" s="7" t="s"/>
     </x:row>
     <x:row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <x:c r="A3" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C3" s="5" t="s"/>
+        <x:v>5</x:v>
+      </x:c>
       <x:c r="D3" s="5" t="s"/>
       <x:c r="E3" s="7" t="s"/>
     </x:row>
     <x:row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <x:c r="A4" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B4" s="6" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C4" s="5" t="s"/>
+        <x:v>7</x:v>
+      </x:c>
       <x:c r="D4" s="5" t="s"/>
       <x:c r="E4" s="8" t="s"/>
     </x:row>
     <x:row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <x:c r="A5" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="6" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C5" s="5" t="s"/>
+        <x:v>7</x:v>
+      </x:c>
       <x:c r="D5" s="5" t="s"/>
       <x:c r="E5" s="8" t="s"/>
     </x:row>
     <x:row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <x:c r="A6" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B6" s="6" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C6" s="5" t="s"/>
+        <x:v>9</x:v>
+      </x:c>
       <x:c r="D6" s="5" t="s"/>
       <x:c r="E6" s="8" t="s"/>
     </x:row>
-    <x:row r="7" spans="1:5"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -558,4 +546,72 @@
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:B6"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:2">
+      <x:c r="A1" s="5" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="5" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:2">
+      <x:c r="A2" s="5" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B2" s="5" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:2">
+      <x:c r="A3" s="5" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:2">
+      <x:c r="A4" s="5" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B4" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:2">
+      <x:c r="A5" s="5" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B5" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:2">
+      <x:c r="A6" s="5" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B6" s="5" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/Expense.xlsx
+++ b/Expense.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\hbksilver-code\RPA\P0\P0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1DA9CE-DE4E-428F-8FD8-A4FC9C56CC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304607A2-CF0D-479C-A6E5-EBA3A0B9456D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="3893" yWindow="997" windowWidth="14400" windowHeight="8273" firstSheet="0" activeTab="0" xr2:uid="{8C85B8CF-4611-48C0-9F54-5ACB59169B9F}"/>
+    <x:workbookView xWindow="570" yWindow="3128" windowWidth="14400" windowHeight="8272" firstSheet="0" activeTab="0" xr2:uid="{8C85B8CF-4611-48C0-9F54-5ACB59169B9F}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <x:sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="191029"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <x:si>
     <x:t>ItemName</x:t>
   </x:si>
@@ -43,22 +44,16 @@
     <x:t>Price</x:t>
   </x:si>
   <x:si>
-    <x:t>First Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Last Name</x:t>
-  </x:si>
-  <x:si>
     <x:t>Burger</x:t>
   </x:si>
   <x:si>
-    <x:t>$24.99</x:t>
+    <x:t>$15.00</x:t>
   </x:si>
   <x:si>
     <x:t>Car</x:t>
   </x:si>
   <x:si>
-    <x:t>$699.00</x:t>
+    <x:t>$499.95</x:t>
   </x:si>
   <x:si>
     <x:t>Flowers</x:t>
@@ -70,7 +65,7 @@
     <x:t>Jeans</x:t>
   </x:si>
   <x:si>
-    <x:t>$30.90</x:t>
+    <x:t>$32.70</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -114,7 +109,7 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="5">
+  <x:cellStyleXfs count="6">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
@@ -122,20 +117,23 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="8" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="6" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="8" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="9">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <x:alignment wrapText="1"/>
     </x:xf>
+    <x:xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -145,11 +143,11 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -472,7 +470,7 @@
   <x:dimension ref="A1:E6"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="D7" sqref="D7 D7:D7"/>
+      <x:selection activeCell="A6" sqref="A6 A6:A6"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -488,69 +486,88 @@
       <x:c r="B1" s="5" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="5" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D1" s="5" t="s">
-        <x:v>3</x:v>
-      </x:c>
+      <x:c r="D1" s="5" t="s"/>
     </x:row>
     <x:row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <x:c r="A2" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="6" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C2" s="5" t="s"/>
+        <x:v>3</x:v>
+      </x:c>
       <x:c r="D2" s="5" t="s"/>
-      <x:c r="E2" s="7" t="s"/>
+      <x:c r="E2" s="8" t="s"/>
     </x:row>
     <x:row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <x:c r="A3" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C3" s="5" t="s"/>
+        <x:v>5</x:v>
+      </x:c>
       <x:c r="D3" s="5" t="s"/>
-      <x:c r="E3" s="7" t="s"/>
+      <x:c r="E3" s="8" t="s"/>
     </x:row>
     <x:row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <x:c r="A4" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B4" s="6" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C4" s="5" t="s"/>
+        <x:v>7</x:v>
+      </x:c>
       <x:c r="D4" s="5" t="s"/>
-      <x:c r="E4" s="8" t="s"/>
+      <x:c r="E4" s="7" t="s"/>
     </x:row>
     <x:row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <x:c r="A5" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="6" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C5" s="5" t="s"/>
+        <x:v>7</x:v>
+      </x:c>
       <x:c r="D5" s="5" t="s"/>
-      <x:c r="E5" s="8" t="s"/>
+      <x:c r="E5" s="7" t="s"/>
     </x:row>
     <x:row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <x:c r="A6" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B6" s="6" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C6" s="5" t="s"/>
+        <x:v>9</x:v>
+      </x:c>
       <x:c r="D6" s="5" t="s"/>
-      <x:c r="E6" s="8" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:5"/>
+      <x:c r="E6" s="7" t="s"/>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{DBF6BBD8-FEBE-4644-9A3F-BBECF894672D}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:B1"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="B1" sqref="B1 B1:B1"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <x:c r="A1" s="5" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="5" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Expense.xlsx
+++ b/Expense.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\hbksilver-code\RPA\P0\P0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304607A2-CF0D-479C-A6E5-EBA3A0B9456D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2CA270-AA21-408F-9162-9CAC6519547D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="570" yWindow="3128" windowWidth="14400" windowHeight="8272" firstSheet="0" activeTab="0" xr2:uid="{8C85B8CF-4611-48C0-9F54-5ACB59169B9F}"/>
+    <x:workbookView xWindow="698" yWindow="3098" windowWidth="14400" windowHeight="8272" firstSheet="0" activeTab="0" xr2:uid="{8C85B8CF-4611-48C0-9F54-5ACB59169B9F}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,10 +62,10 @@
     <x:t>$43.14</x:t>
   </x:si>
   <x:si>
-    <x:t>Jeans</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$32.70</x:t>
+    <x:t>Watch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$33.99</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -109,7 +109,7 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="6">
+  <x:cellStyleXfs count="7">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
@@ -121,6 +121,9 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="6" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -133,8 +136,8 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <x:alignment wrapText="1"/>
     </x:xf>
+    <x:xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -520,21 +523,17 @@
     </x:row>
     <x:row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <x:c r="A5" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B5" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D5" s="5" t="s"/>
       <x:c r="E5" s="7" t="s"/>
     </x:row>
     <x:row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <x:c r="A6" s="5" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B6" s="6" t="s">
-        <x:v>9</x:v>
-      </x:c>
+      <x:c r="A6" s="5" t="s"/>
+      <x:c r="B6" s="6" t="s"/>
       <x:c r="D6" s="5" t="s"/>
       <x:c r="E6" s="7" t="s"/>
     </x:row>

--- a/Expense.xlsx
+++ b/Expense.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\hbksilver-code\RPA\P0\P0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2CA270-AA21-408F-9162-9CAC6519547D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <x:bookViews>
-    <x:workbookView xWindow="698" yWindow="3098" windowWidth="14400" windowHeight="8272" firstSheet="0" activeTab="0" xr2:uid="{8C85B8CF-4611-48C0-9F54-5ACB59169B9F}"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <x:sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-  </x:sheets>
-  <x:definedNames/>
-  <x:calcPr calcId="191029"/>
-  <x:extLst>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADD22F1-8111-48A2-B257-C9B2AC2F774C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2453" yWindow="98" windowWidth="14400" windowHeight="6045" xr2:uid="{8C85B8CF-4611-48C0-9F54-5ACB59169B9F}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+  </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </x:ext>
-    <x:ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
@@ -30,144 +29,140 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
-    </x:ext>
-  </x:extLst>
-</x:workbook>
+    </ext>
+  </extLst>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <x:si>
-    <x:t>ItemName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Price</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Burger</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$15.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Car</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$499.95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flowers</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$43.14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Watch</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$33.99</x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+  <si>
+    <t>ItemName</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Burger</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>Flowers</t>
+  </si>
+  <si>
+    <t>Watch</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Qty1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John </t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mary </t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Tasha</t>
+  </si>
+  <si>
+    <t>Locke</t>
+  </si>
+  <si>
+    <t>Olivia</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Uber eats</t>
+  </si>
+  <si>
+    <t>Carvana</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
-  <x:numFmts count="2">
-    <x:numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <x:numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-  </x:numFmts>
-  <x:fonts count="2" x14ac:knownFonts="1">
-    <x:font>
-      <x:sz val="11"/>
-      <x:color theme="1"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="2">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-  </x:fills>
-  <x:borders count="1">
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
-      <x:diagonal/>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="7">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="8" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="6" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellStyleXfs>
-  <x:cellXfs count="9">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <x:alignment wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </x:cellStyles>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </x:ext>
-  </x:extLst>
-</x:styleSheet>
+    </ext>
+  </extLst>
+</styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -466,112 +461,149 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{C822960F-97BE-4070-9762-3A590B67FA6E}" mc:Ignorable="x14ac xr xr2 xr3">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:E6"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="A6" sqref="A6 A6:A6"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <x:cols>
-    <x:col min="1" max="2" width="9.132812" style="5" customWidth="1"/>
-    <x:col min="3" max="3" width="13.929688" style="5" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <x:c r="A1" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="5" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D1" s="5" t="s"/>
-    </x:row>
-    <x:row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <x:c r="A2" s="5" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B2" s="6" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D2" s="5" t="s"/>
-      <x:c r="E2" s="8" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <x:c r="A3" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B3" s="6" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D3" s="5" t="s"/>
-      <x:c r="E3" s="8" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <x:c r="A4" s="5" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B4" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D4" s="5" t="s"/>
-      <x:c r="E4" s="7" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <x:c r="A5" s="5" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B5" s="6" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D5" s="5" t="s"/>
-      <x:c r="E5" s="7" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <x:c r="A6" s="5" t="s"/>
-      <x:c r="B6" s="6" t="s"/>
-      <x:c r="D6" s="5" t="s"/>
-      <x:c r="E6" s="7" t="s"/>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C822960F-97BE-4070-9762-3A590B67FA6E}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.1328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.9296875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="3">
+        <v>4.74</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="3">
+        <v>6792.31</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="3">
+        <v>9.89</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="3">
+        <v>32.46</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="3"/>
+      <c r="C6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{DBF6BBD8-FEBE-4644-9A3F-BBECF894672D}" mc:Ignorable="x14ac xr xr2 xr3">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:B1"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0">
-      <x:selection activeCell="B1" sqref="B1 B1:B1"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <x:c r="A1" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="5" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF6BBD8-FEBE-4644-9A3F-BBECF894672D}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1 B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Expense.xlsx
+++ b/Expense.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\hbksilver-code\RPA\P0\P0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donation\Desktop\Baraka_H-andAlfaro_G-P0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2CA270-AA21-408F-9162-9CAC6519547D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <x:bookViews>
-    <x:workbookView xWindow="698" yWindow="3098" windowWidth="14400" windowHeight="8272" firstSheet="0" activeTab="0" xr2:uid="{8C85B8CF-4611-48C0-9F54-5ACB59169B9F}"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <x:sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-  </x:sheets>
-  <x:definedNames/>
-  <x:calcPr calcId="191029"/>
-  <x:extLst>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9AA2B7-0B59-4DA8-86AC-315BD9BEC09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="1305" yWindow="-120" windowWidth="27615" windowHeight="16440" activeTab="2" xr2:uid="{8C85B8CF-4611-48C0-9F54-5ACB59169B9F}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Amazon" sheetId="1" r:id="rId1"/>
+    <sheet name="Target" sheetId="2" r:id="rId2"/>
+    <sheet name="Walmart" sheetId="3" r:id="rId3"/>
+  </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </x:ext>
-    <x:ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
@@ -30,144 +30,110 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
-    </x:ext>
-  </x:extLst>
-</x:workbook>
+    </ext>
+  </extLst>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <x:si>
-    <x:t>ItemName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Price</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Burger</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$15.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Car</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$499.95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flowers</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$43.14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Watch</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$33.99</x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Item1</t>
+  </si>
+  <si>
+    <t>Price1</t>
+  </si>
+  <si>
+    <t>Qty1</t>
+  </si>
+  <si>
+    <t>Item2</t>
+  </si>
+  <si>
+    <t>Price2</t>
+  </si>
+  <si>
+    <t>Qty2</t>
+  </si>
+  <si>
+    <t>Item3</t>
+  </si>
+  <si>
+    <t>Price3</t>
+  </si>
+  <si>
+    <t>Qty3</t>
+  </si>
+  <si>
+    <t>In Stock</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
-  <x:numFmts count="2">
-    <x:numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <x:numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-  </x:numFmts>
-  <x:fonts count="2" x14ac:knownFonts="1">
-    <x:font>
-      <x:sz val="11"/>
-      <x:color theme="1"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="2">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-  </x:fills>
-  <x:borders count="1">
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
-      <x:diagonal/>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="7">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="8" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="6" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellStyleXfs>
-  <x:cellXfs count="9">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <x:alignment wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </x:cellStyles>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </x:ext>
-  </x:extLst>
-</x:styleSheet>
+    </ext>
+  </extLst>
+</styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -466,112 +432,189 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{C822960F-97BE-4070-9762-3A590B67FA6E}" mc:Ignorable="x14ac xr xr2 xr3">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:E6"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="A6" sqref="A6 A6:A6"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <x:cols>
-    <x:col min="1" max="2" width="9.132812" style="5" customWidth="1"/>
-    <x:col min="3" max="3" width="13.929688" style="5" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <x:c r="A1" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="5" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D1" s="5" t="s"/>
-    </x:row>
-    <x:row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <x:c r="A2" s="5" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B2" s="6" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D2" s="5" t="s"/>
-      <x:c r="E2" s="8" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <x:c r="A3" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B3" s="6" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D3" s="5" t="s"/>
-      <x:c r="E3" s="8" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <x:c r="A4" s="5" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B4" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D4" s="5" t="s"/>
-      <x:c r="E4" s="7" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <x:c r="A5" s="5" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B5" s="6" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D5" s="5" t="s"/>
-      <x:c r="E5" s="7" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <x:c r="A6" s="5" t="s"/>
-      <x:c r="B6" s="6" t="s"/>
-      <x:c r="D6" s="5" t="s"/>
-      <x:c r="E6" s="7" t="s"/>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C822960F-97BE-4070-9762-3A590B67FA6E}">
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{DBF6BBD8-FEBE-4644-9A3F-BBECF894672D}" mc:Ignorable="x14ac xr xr2 xr3">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:B1"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0">
-      <x:selection activeCell="B1" sqref="B1 B1:B1"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <x:c r="A1" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="5" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF6BBD8-FEBE-4644-9A3F-BBECF894672D}">
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EDE1F08-AD01-46C5-8171-FCE74B91930C}">
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Expense.xlsx
+++ b/Expense.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donation\Desktop\Baraka_H-andAlfaro_G-P0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9AA2B7-0B59-4DA8-86AC-315BD9BEC09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF0D7E1-F753-41B7-BE1F-23354E151DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="-120" windowWidth="27615" windowHeight="16440" activeTab="2" xr2:uid="{8C85B8CF-4611-48C0-9F54-5ACB59169B9F}"/>
+    <workbookView xWindow="8625" yWindow="2640" windowWidth="14565" windowHeight="8310" xr2:uid="{8C85B8CF-4611-48C0-9F54-5ACB59169B9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Amazon" sheetId="1" r:id="rId1"/>
@@ -433,16 +433,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C822960F-97BE-4070-9762-3A590B67FA6E}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -508,6 +508,76 @@
       <c r="D6" s="1"/>
       <c r="E6" s="3"/>
     </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+    </row>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -518,7 +588,7 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EDE1F08-AD01-46C5-8171-FCE74B91930C}">
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Expense.xlsx
+++ b/Expense.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\hbksilver-code\RPA\P0\P0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADD22F1-8111-48A2-B257-C9B2AC2F774C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF34364C-1AC5-4FE4-A8AA-CE4285A90971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2453" yWindow="98" windowWidth="14400" windowHeight="6045" xr2:uid="{8C85B8CF-4611-48C0-9F54-5ACB59169B9F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{8C85B8CF-4611-48C0-9F54-5ACB59169B9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,72 +37,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
+  <si>
+    <t>OrderNumber</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
   <si>
     <t>ItemName</t>
   </si>
   <si>
-    <t>Price</t>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Qty1</t>
+  </si>
+  <si>
+    <t>ItemName2</t>
+  </si>
+  <si>
+    <t>Qty2</t>
+  </si>
+  <si>
+    <t>ItemName3</t>
+  </si>
+  <si>
+    <t>Qty3</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>CustomerEmail</t>
   </si>
   <si>
     <t>Burger</t>
   </si>
   <si>
+    <t xml:space="preserve">John </t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>Uber eats</t>
+  </si>
+  <si>
+    <t>johnDoe@outlook.com</t>
+  </si>
+  <si>
     <t>Car</t>
   </si>
   <si>
+    <t xml:space="preserve">Mary </t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Carvana</t>
+  </si>
+  <si>
+    <t>marysmith@outlook.com</t>
+  </si>
+  <si>
     <t>Flowers</t>
   </si>
   <si>
+    <t>Tasha</t>
+  </si>
+  <si>
+    <t>Locke</t>
+  </si>
+  <si>
+    <t>Belt</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>tLocke@gmail.com</t>
+  </si>
+  <si>
     <t>Watch</t>
   </si>
   <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>Qty1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John </t>
-  </si>
-  <si>
-    <t>Doe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mary </t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>Tasha</t>
-  </si>
-  <si>
-    <t>Locke</t>
-  </si>
-  <si>
     <t>Olivia</t>
   </si>
   <si>
     <t>James</t>
   </si>
   <si>
-    <t>Vendor</t>
-  </si>
-  <si>
-    <t>Uber eats</t>
-  </si>
-  <si>
-    <t>Carvana</t>
-  </si>
-  <si>
-    <t>Target</t>
+    <t>Baby Yoda</t>
+  </si>
+  <si>
+    <t>Jeans</t>
   </si>
   <si>
     <t>Amazon</t>
+  </si>
+  <si>
+    <t>OliviaJ@Yahoo.com</t>
   </si>
 </sst>
 </file>
@@ -110,10 +151,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -139,14 +188,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -462,148 +515,421 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C822960F-97BE-4070-9762-3A590B67FA6E}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.1328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.9296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.53125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.9296875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9.1328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.73046875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="9.1328125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="3">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
         <v>4.74</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="3">
-        <v>6792.31</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="3">
-        <v>9.89</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="3">
-        <v>32.46</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="L2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="3"/>
-      <c r="C6"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B3" s="3"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B4" s="3"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B5" s="3"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B6" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF6BBD8-FEBE-4644-9A3F-BBECF894672D}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670B3DDE-B236-479F-9626-E756C62C7135}">
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1 B1"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="6" width="9.1328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.06640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.3984375" style="1" customWidth="1"/>
+    <col min="10" max="11" width="9.1328125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.53125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.73046875" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A2" s="4">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>6792.31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A481850-A4AF-4A08-8286-AA2CD2B803B6}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="6" width="9.1328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.265625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="9.1328125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.46484375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A2" s="4">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3">
+        <v>9.89</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{510380F8-C0E7-43E6-B63F-AA0D9C26134C}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="6" width="9.1328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.53125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="9.1328125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.796875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.06640625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A2" s="4">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3">
+        <v>32.46</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Expense.xlsx
+++ b/Expense.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donation\Desktop\Baraka_H-andAlfaro_G-P0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF0D7E1-F753-41B7-BE1F-23354E151DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184B53E7-94AA-4B2B-8432-17C330AD096D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8625" yWindow="2640" windowWidth="14565" windowHeight="8310" xr2:uid="{8C85B8CF-4611-48C0-9F54-5ACB59169B9F}"/>
+    <workbookView xWindow="9870" yWindow="2010" windowWidth="14565" windowHeight="8310" xr2:uid="{8C85B8CF-4611-48C0-9F54-5ACB59169B9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Amazon" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -72,6 +72,18 @@
   </si>
   <si>
     <t>In Stock</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>In Stock1</t>
+  </si>
+  <si>
+    <t>In Stock2</t>
+  </si>
+  <si>
+    <t>In Stock3</t>
   </si>
 </sst>
 </file>
@@ -433,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C822960F-97BE-4070-9762-3A590B67FA6E}">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,7 +457,7 @@
     <col min="3" max="3" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -462,98 +474,107 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="D2" s="1"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="D3" s="1"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="D4" s="1"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="D5" s="1"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="D6" s="1"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -588,7 +609,7 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,7 +662,7 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Expense.xlsx
+++ b/Expense.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\hbksilver-code\RPA\P0\P0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF34364C-1AC5-4FE4-A8AA-CE4285A90971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1F0CB6-4BD0-459D-9AA4-B6A459A9D0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{8C85B8CF-4611-48C0-9F54-5ACB59169B9F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="37">
   <si>
     <t>OrderNumber</t>
   </si>
@@ -60,12 +60,18 @@
     <t>ItemName2</t>
   </si>
   <si>
+    <t>Price2</t>
+  </si>
+  <si>
     <t>Qty2</t>
   </si>
   <si>
     <t>ItemName3</t>
   </si>
   <si>
+    <t>Price3</t>
+  </si>
+  <si>
     <t>Qty3</t>
   </si>
   <si>
@@ -84,16 +90,16 @@
     <t>Doe</t>
   </si>
   <si>
-    <t>Uber eats</t>
-  </si>
-  <si>
-    <t>johnDoe@outlook.com</t>
+    <t>Uber Eats</t>
+  </si>
+  <si>
+    <t>johneDoe@outlook.com</t>
   </si>
   <si>
     <t>Car</t>
   </si>
   <si>
-    <t xml:space="preserve">Mary </t>
+    <t>Mary</t>
   </si>
   <si>
     <t>Smith</t>
@@ -102,7 +108,7 @@
     <t>Carvana</t>
   </si>
   <si>
-    <t>marysmith@outlook.com</t>
+    <t>Mary.S@gmail.com</t>
   </si>
   <si>
     <t>Flowers</t>
@@ -188,19 +194,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,32 +527,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C822960F-97BE-4070-9762-3A590B67FA6E}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="K8" sqref="K8 K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.53125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.1328125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.86328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.1328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.9296875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="9.1328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1328125" style="4" customWidth="1"/>
     <col min="7" max="7" width="12.73046875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="1" customWidth="1"/>
-    <col min="10" max="11" width="9.1328125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.86328125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.1328125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.1328125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="23.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -552,79 +568,85 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
         <v>4.74</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4">
         <v>2</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="5">
         <v>0</v>
       </c>
-      <c r="J2" s="1">
+      <c r="L2" s="4">
         <v>0</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B3" s="3"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B4" s="3"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B5" s="3"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B6" s="3"/>
+      <c r="M2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B3" s="6"/>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B4" s="6"/>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B5" s="6"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B6" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="N2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -633,28 +655,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670B3DDE-B236-479F-9626-E756C62C7135}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="I19" sqref="I19 I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="6" width="9.1328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.86328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.3984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1328125" style="4" customWidth="1"/>
     <col min="7" max="7" width="11.06640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.3984375" style="1" customWidth="1"/>
-    <col min="10" max="11" width="9.1328125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="21.53125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.73046875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.06640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.1328125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="10.3984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.3984375" style="2" customWidth="1"/>
+    <col min="12" max="13" width="9.1328125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="21.53125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.73046875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -666,64 +695,70 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="6">
         <v>6792.31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
+        <v>21</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4">
         <v>0</v>
       </c>
-      <c r="J2" s="1">
+      <c r="L2" s="4">
         <v>0</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>21</v>
+      <c r="M2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="N2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -731,28 +766,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A481850-A4AF-4A08-8286-AA2CD2B803B6}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="6" width="9.1328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.73046875" style="1" customWidth="1"/>
+    <col min="2" max="5" width="9.1328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1328125" style="4" customWidth="1"/>
     <col min="7" max="7" width="12.265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.265625" style="1" customWidth="1"/>
-    <col min="10" max="11" width="9.1328125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.46484375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.265625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.1328125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.265625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.265625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.1328125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="9.1328125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="25.19921875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.46484375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -764,67 +804,73 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A2" s="4">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A2" s="3">
         <v>3</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="6">
         <v>9.89</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="1">
+        <v>26</v>
+      </c>
+      <c r="F2" s="4">
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="2" t="s">
         <v>27</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1</v>
+      </c>
+      <c r="L2" s="4">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="N2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -832,28 +878,33 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{510380F8-C0E7-43E6-B63F-AA0D9C26134C}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="K1" sqref="K1 K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="6" width="9.1328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.86328125" style="1" customWidth="1"/>
+    <col min="2" max="5" width="9.1328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1328125" style="4" customWidth="1"/>
     <col min="7" max="7" width="11.265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.53125" style="1" customWidth="1"/>
-    <col min="10" max="11" width="9.1328125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.796875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.06640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.265625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.1328125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="13.53125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.53125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.1328125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="9.1328125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.796875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.86328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -865,70 +916,76 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A2" s="4">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A2" s="3">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="6">
         <v>32.46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="1">
+        <v>32</v>
+      </c>
+      <c r="F2" s="4">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="I2" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>34</v>
+      </c>
+      <c r="L2" s="4">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="N2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Expense.xlsx
+++ b/Expense.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\hbksilver-code\RPA\P0\P0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1F0CB6-4BD0-459D-9AA4-B6A459A9D0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB1A4A9-634C-403E-853D-7E48591D2E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{8C85B8CF-4611-48C0-9F54-5ACB59169B9F}"/>
+    <workbookView xWindow="1530" yWindow="5355" windowWidth="14400" windowHeight="6045" activeTab="1" xr2:uid="{8C85B8CF-4611-48C0-9F54-5ACB59169B9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -197,10 +197,10 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -529,23 +529,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C822960F-97BE-4070-9762-3A590B67FA6E}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8 K8"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1 O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.86328125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.1328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.86328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.1328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.1328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.1328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.1328125" style="4" customWidth="1"/>
     <col min="7" max="7" width="12.73046875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.86328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.86328125" style="3" customWidth="1"/>
     <col min="9" max="9" width="9.1328125" style="5" customWidth="1"/>
     <col min="10" max="10" width="12.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" style="3" customWidth="1"/>
     <col min="12" max="12" width="9.1328125" style="4" customWidth="1"/>
     <col min="13" max="13" width="10.6640625" style="1" customWidth="1"/>
     <col min="14" max="14" width="23.33203125" style="1" customWidth="1"/>
@@ -553,10 +553,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -574,7 +574,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -583,7 +583,7 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="4" t="s">
@@ -598,7 +598,7 @@
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="6">
@@ -657,23 +657,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670B3DDE-B236-479F-9626-E756C62C7135}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19 I19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="16.86328125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="12.59765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.19921875" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.3984375" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.1328125" style="4" customWidth="1"/>
     <col min="7" max="7" width="11.06640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.06640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.06640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="9.1328125" style="4" customWidth="1"/>
     <col min="10" max="10" width="10.3984375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.3984375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.3984375" style="3" customWidth="1"/>
     <col min="12" max="13" width="9.1328125" style="1" customWidth="1"/>
     <col min="14" max="14" width="21.53125" style="1" customWidth="1"/>
     <col min="15" max="15" width="10.73046875" style="1" customWidth="1"/>
@@ -683,7 +683,7 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -701,7 +701,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -710,7 +710,7 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -768,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A481850-A4AF-4A08-8286-AA2CD2B803B6}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2 O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -778,10 +778,10 @@
     <col min="2" max="5" width="9.1328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.1328125" style="4" customWidth="1"/>
     <col min="7" max="7" width="12.265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.265625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.265625" style="3" customWidth="1"/>
     <col min="9" max="9" width="9.1328125" style="4" customWidth="1"/>
     <col min="10" max="10" width="11.265625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.265625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.265625" style="3" customWidth="1"/>
     <col min="12" max="12" width="9.1328125" style="4" customWidth="1"/>
     <col min="13" max="13" width="9.1328125" style="1" customWidth="1"/>
     <col min="14" max="14" width="25.19921875" style="1" customWidth="1"/>
@@ -789,10 +789,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -810,7 +810,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -819,7 +819,7 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="4" t="s">
@@ -834,7 +834,7 @@
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>3</v>
       </c>
       <c r="B2" s="6">
@@ -881,7 +881,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1 K1:K1048576"/>
+      <selection activeCell="K1" sqref="K1 K1 K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -890,10 +890,10 @@
     <col min="2" max="5" width="9.1328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.1328125" style="4" customWidth="1"/>
     <col min="7" max="7" width="11.265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.265625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.265625" style="3" customWidth="1"/>
     <col min="9" max="9" width="9.1328125" style="4" customWidth="1"/>
     <col min="10" max="10" width="13.53125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.53125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.53125" style="3" customWidth="1"/>
     <col min="12" max="12" width="9.1328125" style="4" customWidth="1"/>
     <col min="13" max="13" width="9.1328125" style="1" customWidth="1"/>
     <col min="14" max="14" width="15.796875" style="1" customWidth="1"/>
@@ -901,10 +901,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -922,7 +922,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -931,7 +931,7 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="4" t="s">
@@ -946,7 +946,7 @@
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>4</v>
       </c>
       <c r="B2" s="6">

--- a/Expense.xlsx
+++ b/Expense.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\hbksilver-code\RPA\P0\P0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB1A4A9-634C-403E-853D-7E48591D2E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9065BB8E-7C0B-48B9-AACB-6D5854EE46BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="5355" windowWidth="14400" windowHeight="6045" activeTab="1" xr2:uid="{8C85B8CF-4611-48C0-9F54-5ACB59169B9F}"/>
+    <workbookView xWindow="1567" yWindow="3075" windowWidth="14401" windowHeight="7672" activeTab="3" xr2:uid="{8C85B8CF-4611-48C0-9F54-5ACB59169B9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -527,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C822960F-97BE-4070-9762-3A590B67FA6E}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1 O1"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -549,10 +549,9 @@
     <col min="12" max="12" width="9.1328125" style="4" customWidth="1"/>
     <col min="13" max="13" width="10.6640625" style="1" customWidth="1"/>
     <col min="14" max="14" width="23.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -595,9 +594,9 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -629,19 +628,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B3" s="6"/>
       <c r="N3" s="7"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B4" s="6"/>
       <c r="N4" s="7"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B5" s="6"/>
       <c r="N5" s="7"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B6" s="6"/>
     </row>
   </sheetData>
@@ -655,10 +654,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670B3DDE-B236-479F-9626-E756C62C7135}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -676,10 +675,9 @@
     <col min="11" max="11" width="10.3984375" style="3" customWidth="1"/>
     <col min="12" max="13" width="9.1328125" style="1" customWidth="1"/>
     <col min="14" max="14" width="21.53125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.73046875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -722,9 +720,9 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
         <v>2</v>
       </c>
@@ -880,7 +878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{510380F8-C0E7-43E6-B63F-AA0D9C26134C}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K1" sqref="K1 K1 K1:K1048576"/>
     </sheetView>
   </sheetViews>
